--- a/Inserting in to exl/data.xlsx
+++ b/Inserting in to exl/data.xlsx
@@ -1,34 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="570" windowWidth="21735" windowHeight="2265"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Text Case ID</t>
+  </si>
+  <si>
+    <t>Test Case OBjective</t>
+  </si>
+  <si>
+    <t>Pre-Condition</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Data </t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check wether internet is avalable or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Internet connection </t>
+  </si>
+  <si>
+    <t>www.flipkart.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site home page displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page displayed </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +103,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,77 +404,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
+    <row r="1" spans="1:9" ht="52.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:9" ht="47.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TC_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Check wether Internet is Avalble or Not</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Test Internet connection</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>www.flpkart.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Site hoempage display should display on screen</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Home page dispalyed</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>